--- a/logs.xlsx
+++ b/logs.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\6\Informatics\pws\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1740B5-8EE2-47C9-98DE-3614D490F471}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D433AFAA-F63E-4C57-9B2D-DAECCA07D0F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{27A131A8-02A1-4C57-A231-19D79B8306D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,10 +23,19 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>overig Voor bijhouden oa onderzoeken welke taal en een proefversie gemaakt als command line app</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF62EDA-CA1D-44DE-AD71-40A74F9DBE14}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,7 +398,7 @@
     <col min="1" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43365</v>
       </c>
@@ -432,8 +441,23 @@
       <c r="N1" s="2">
         <v>43406</v>
       </c>
+      <c r="O1" s="2">
+        <v>43422</v>
+      </c>
+      <c r="P1" s="2">
+        <v>43440</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>43441</v>
+      </c>
+      <c r="R1" s="2">
+        <v>43443</v>
+      </c>
+      <c r="S1" s="2">
+        <v>43444</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -475,6 +499,37 @@
       </c>
       <c r="N2">
         <v>2</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f>SUM(A2:Z2)+A6</f>
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
